--- a/data_test.PNG.xlsx
+++ b/data_test.PNG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\95945\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KBTC\OSD\kali\Zenchy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C813C8B-C6A5-49B5-A7BB-5A88B83519F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83C2F17-B372-466B-B6B4-6EB8F7CC57AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
   <si>
     <t>1</t>
   </si>
@@ -310,9 +310,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,7 +743,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -760,7 +761,7 @@
         <v>22</v>
       </c>
       <c r="B1">
-        <v>1092</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -769,7 +770,7 @@
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(B1,A5:F30,5,FALSE)</f>
-        <v>10-6025</v>
+        <v>10-4430</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -798,31 +799,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="1">
+    <row r="5" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>1014</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1092</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
@@ -1339,12 +1340,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A4:F4 B14:F14 B5:F5 B6:F6 B30:F30 B29:F29 B7:F7 B8:F8 B9:F9 B10:F10 B11:F11 B12:F12 B13:F13 B28:F28 B27:F27 B26:F26 B25:F25 B24:F24 B23:F23 B22:F22 B21:F21 B20:F20 B17:F17 B16:F16 B15:F15 B18:F18 B19:F19" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:F4 B14:F14 B5:E5 B6:F6 B30:F30 B29:F29 B7:F7 B8:F8 B9:F9 B10:F10 B11:F11 B12:F12 B13:F13 B28:F28 B27:F27 B26:F26 B25:F25 B24:F24 B23:F23 B22:F22 B21:F21 B20:F20 B17:F17 B16:F16 B15:F15 B18:F18 B19:F19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004F3DF568A380FE46AFD54396B381DD77" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b3b108c8973ece058d5cb2a28ae5275">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6a20a522-0465-45c1-aca0-c6e056d1dbd2" xmlns:ns3="3cee7663-c00c-4c69-9484-37d3aa603b55" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e8823f04b04d27ba6394eae3bfb1219" ns2:_="" ns3:_="">
     <xsd:import namespace="6a20a522-0465-45c1-aca0-c6e056d1dbd2"/>
@@ -1521,16 +1531,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DF1A20E-8F7A-4B1F-B6E3-C48F4BB9145A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F6F597-BDA9-44F5-BF54-F3CE96DBA870}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1547,12 +1556,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DF1A20E-8F7A-4B1F-B6E3-C48F4BB9145A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data_test.PNG.xlsx
+++ b/data_test.PNG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KBTC\OSD\kali\Zenchy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83C2F17-B372-466B-B6B4-6EB8F7CC57AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB362AA-3B73-46A2-B9BE-068D810541B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,10 +310,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,7 +742,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -800,22 +799,22 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>1014</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>5</v>
       </c>
     </row>
@@ -823,7 +822,7 @@
       <c r="A6">
         <v>1092</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
@@ -1346,15 +1345,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004F3DF568A380FE46AFD54396B381DD77" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b3b108c8973ece058d5cb2a28ae5275">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6a20a522-0465-45c1-aca0-c6e056d1dbd2" xmlns:ns3="3cee7663-c00c-4c69-9484-37d3aa603b55" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e8823f04b04d27ba6394eae3bfb1219" ns2:_="" ns3:_="">
     <xsd:import namespace="6a20a522-0465-45c1-aca0-c6e056d1dbd2"/>
@@ -1531,15 +1521,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DF1A20E-8F7A-4B1F-B6E3-C48F4BB9145A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F6F597-BDA9-44F5-BF54-F3CE96DBA870}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1556,4 +1547,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DF1A20E-8F7A-4B1F-B6E3-C48F4BB9145A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>